--- a/数据统计分类DATA_FILE_Charle_20200621.xlsx
+++ b/数据统计分类DATA_FILE_Charle_20200621.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7005" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CODE_DIM" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14773" uniqueCount="3039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14785" uniqueCount="3046">
   <si>
     <t>总体 情况</t>
   </si>
@@ -10432,62 +10432,85 @@
     <t>SQL query</t>
   </si>
   <si>
-    <t>select data_month, count(*) hosp_cnt from drg_patient_case group by data_month</t>
-  </si>
-  <si>
-    <t>select data_month, count(distinct patient_id) hosp_pat_cnt from drg_patient_case group by data_month</t>
-  </si>
-  <si>
     <t>select data_month, count(*) hosp_cnt from drg_patient_case where data_month&gt;=start_data_month and data_month&lt;=end_data_month and date_part('day', age(to_date(dischg_date, 'YYYY-MM-DD'), to_date(birth_date, 'YYYY-MM-DD')))&lt;29 group by data_month</t>
   </si>
   <si>
-    <t>select a.data_month, count(a.*) hosp_cnt from drg_patient_case a, drg_icd9cm b where a.patient_summary_op like '%' || b.icd9code || '%' and b.icd9_code_categrry='手术' group by a.data_month</t>
-  </si>
-  <si>
-    <t>select a.data_month, count(a.*) hosp_cnt from drg_patient_case a, drg_icd9cm b where a.patient_summary_op like '%' || b.icd9code || '%' and (b.icd9_code_categrry='手术' or b.icd9_code_categrry='治疗性操作' or b.icd9_code_categrry='诊断性操作' or b.icd9_code_categrry='介入治疗') group by a.data_month</t>
-  </si>
-  <si>
-    <t>select a.data_month, round(cast(b.targ_cnt*1.0/a.tot_cnt as numeric), 2) as hosp_rate from (select data_month, count(*) tot_cnt from drg_patient_case group by data_month) a, (select a.data_month, count(a.*) targ_cnt from drg_patient_case a, drg_patient_case b where a.dischg_date=b.admit_date and a.patient_id=b.patient_id group by a.data_month) b where a.data_month=b.data_month</t>
-  </si>
-  <si>
-    <t>select a.data_month, round(cast(b.targ_cnt*1.0/a.tot_cnt as numeric), 2) as hosp_rate from (select data_month, count(*) tot_cnt from drg_patient_case group by data_month) a, (select a.data_month, count(a.*) targ_cnt from drg_patient_case a, drg_patient_case b where date_part('day', age(to_date(a.dischg_date, 'YYYY-MM-DD'), to_date(b.admit_date, 'YYYY-MM-DD')))&gt;=2 and date_part('day', age(to_date(a.dischg_date, 'YYYY-MM-DD'), to_date(b.admit_date, 'YYYY-MM-DD')))&lt;=31 and a.patient_id=b.patient_id group by a.data_month) b where a.data_month=b.data_month</t>
-  </si>
-  <si>
-    <t>select a.data_month, round(cast(b.targ_cnt*1.0/a.tot_cnt as numeric), 2) as hosp_rate from (select data_month, count(*) tot_cnt from drg_patient_case group by data_month) a, (select data_month, count(*) targ_cnt from drg_patient_case where data_month&gt;=start_data_month and data_month&lt;=end_data_month and day31_readmit_plan='1' group by data_month) b where a.data_month=b.data_month</t>
-  </si>
-  <si>
-    <t>select a.data_month, round(cast(b.targ_cnt*1.0/a.tot_cnt as numeric), 2) as hosp_rate from (select data_month, count(*) tot_cnt from drg_patient_case group by data_month) a, (select data_month, count(*) targ_cnt from drg_patient_case where data_month&gt;=start_data_month and data_month&lt;=end_data_month and op_0_date&lt;&gt;'' and ((op_1_date is not null and op_1_date&lt;&gt;'' and op_0_date&lt;&gt;op_1_date) or (op_2_date is not null and op_2_date&lt;&gt;'' and op_0_date&lt;&gt;op_2_date) or (op_3_date is not null and op_3_date&lt;&gt;'' and op_0_date&lt;&gt;op_3_date) or (op_4_date is not null and op_4_date&lt;&gt;'' and op_0_date&lt;&gt;op_4_date) or (op_5_date is not null and op_5_date&lt;&gt;'' and op_0_date&lt;&gt;op_5_date) or (op_6_date is not null and op_6_date&lt;&gt;'' and op_0_date&lt;&gt;op_6_date) or (op_7_date is not null and op_7_date&lt;&gt;'' and op_0_date&lt;&gt;op_7_date) or (op_8_date is not null and op_8_date&lt;&gt;'' and op_0_date&lt;&gt;op_8_date) or (op_9_date is not null and op_9_date&lt;&gt;'' and op_0_date&lt;&gt;op_9_date)) group by data_month) b where a.data_month=b.data_month</t>
-  </si>
-  <si>
-    <t>select a.data_month, round(cast(b.targ_cnt*1.0/a.tot_cnt as numeric), 2) as hosp_rate from (select data_month, count(*) tot_cnt from drg_patient_case where op_0_code is not null and op_0_code&lt;&gt;'' group by data_month) a, (select data_month, count(*) targ_cnt from drg_patient_case where data_month&gt;=start_data_month and data_month&lt;=end_data_month and op_0_date&lt;&gt;'' and ((op_1_date is not null and op_1_date&lt;&gt;'' and op_0_date&lt;&gt;op_1_date) or (op_2_date is not null and op_2_date&lt;&gt;'' and op_0_date&lt;&gt;op_2_date) or (op_3_date is not null and op_3_date&lt;&gt;'' and op_0_date&lt;&gt;op_3_date) or (op_4_date is not null and op_4_date&lt;&gt;'' and op_0_date&lt;&gt;op_4_date) or (op_5_date is not null and op_5_date&lt;&gt;'' and op_0_date&lt;&gt;op_5_date) or (op_6_date is not null and op_6_date&lt;&gt;'' and op_0_date&lt;&gt;op_6_date) or (op_7_date is not null and op_7_date&lt;&gt;'' and op_0_date&lt;&gt;op_7_date) or (op_8_date is not null and op_8_date&lt;&gt;'' and op_0_date&lt;&gt;op_8_date) or (op_9_date is not null and op_9_date&lt;&gt;'' and op_0_date&lt;&gt;op_9_date)) group by data_month) b where a.data_month=b.data_month</t>
-  </si>
-  <si>
-    <t>select a.data_month, round(cast(b.targ_cnt*1.0/a.tot_cnt as numeric), 3) as hosp_rate from (select data_month, count(*) tot_cnt from drg_patient_case group by data_month) a, (select data_month, count(*) targ_cnt from drg_patient_case where data_month&gt;=start_data_month and data_month&lt;=end_data_month and return_code='5' group by data_month) b where a.data_month=b.data_month</t>
-  </si>
-  <si>
-    <t>select a.data_month, round(cast(b.targ_cnt*1.0/a.tot_cnt as numeric), 3) as hosp_rate from (select data_month, count(*) tot_cnt from drg_patient_case group by data_month) a, (select a.data_month, count(a.*) targ_cnt from drg_patient_case a, drg_icd9cm b where a.return_code='5' and a.patient_summary_op like '%' || b.icd9code || '%' and b.icd9_code_categrry='手术' group by a.data_month) b where a.data_month=b.data_month</t>
-  </si>
-  <si>
-    <t>select a.data_month, round(cast(b.targ_cnt*1.0/a.tot_cnt as numeric), 3) as hosp_rate from (select data_month, count(*) tot_cnt from drg_patient_case group by data_month) a, (select data_month, count(*) targ_cnt from drg_patient_case where data_month&gt;=start_data_month and data_month&lt;=end_data_month and return_code='5' and date_part('day', age(to_date(dischg_date, 'YYYY-MM-DD'), to_date(birth_date, 'YYYY-MM-DD')))&lt;29 group by data_month) b where a.data_month=b.data_month</t>
-  </si>
-  <si>
-    <t>select data_month, round(cast(avg(fee_amt) as numeric), 2) hosp_amt from drg_patient_case group by data_month</t>
-  </si>
-  <si>
-    <t>select data_month, round(cast(avg(days) as numeric), 2) hosp_amt from drg_patient_case group by data_month</t>
-  </si>
-  <si>
-    <t>select data_month, round(cast((case when SUM(fee_amt)=0 then 0 else SUM(D23+D24+D25+D26+D27+D28+D29+D30)/SUM(fee_amt) end) as numeric), 2) hosp_amt from drg_patient_case group by data_month</t>
-  </si>
-  <si>
-    <t>select data_month, round(cast((case when SUM(fee_amt)=0 then 0 else SUM(D31+D32+D33)/SUM(fee_amt) end) as numeric), 2) hosp_amt from drg_patient_case group by data_month</t>
-  </si>
-  <si>
-    <t>select data_month, round(cast((case when SUM(d23)=0 then 0 else SUM(d23x01)/SUM(d23) end) as numeric), 2) hosp_amt from drg_patient_case group by data_month</t>
+    <t>There should exist records which one's dischg_date value equals other record's admit_date value having same patient_id</t>
+  </si>
+  <si>
+    <t>select data_month, dept_code, count(*) dep_cnt from drg_patient_case where data_month&gt;=start_data_month and data_month&lt;=end_data_month group by data_month, dept_code</t>
+  </si>
+  <si>
+    <t>select data_month, count(distinct patient_id) hosp_pat_cnt from drg_patient_case where data_month&gt;=start_data_month and data_month&lt;=end_data_month group by data_month</t>
+  </si>
+  <si>
+    <t>select a.data_month, count(a.*) hosp_cnt from drg_patient_case a, drg_icd9cm b where a.data_month&gt;=start_data_month and a.data_month&lt;=end_data_month and a.patient_summary_op like '%' || b.icd9code || '%' and b.icd9_code_categrry='手术' group by a.data_month</t>
+  </si>
+  <si>
+    <t>select a.data_month, count(a.*) hosp_cnt from drg_patient_case a, drg_icd9cm b where a.data_month&gt;=start_data_month and a.data_month&lt;=end_data_month and a.patient_summary_op like '%' || b.icd9code || '%' and (b.icd9_code_categrry='手术' or b.icd9_code_categrry='治疗性操作' or b.icd9_code_categrry='诊断性操作' or b.icd9_code_categrry='介入治疗') group by a.data_month</t>
+  </si>
+  <si>
+    <t>select a.data_month, round(cast(b.targ_cnt*1.0/a.tot_cnt as numeric), 2) as hosp_rate from (select data_month, count(*) tot_cnt from drg_patient_case where data_month&gt;=start_data_month and data_month&lt;=end_data_month group by data_month) a, (select a.data_month, count(a.*) targ_cnt from drg_patient_case a, drg_patient_case b where a.data_month&gt;=start_data_month and a.data_month&lt;=end_data_month and a.dischg_date=b.admit_date and a.patient_id=b.patient_id group by a.data_month) b where a.data_month=b.data_month</t>
+  </si>
+  <si>
+    <t>select a.data_month, round(cast(b.targ_cnt*1.0/a.tot_cnt as numeric), 2) as hosp_rate from (select data_month, count(*) tot_cnt from drg_patient_case where data_month&gt;=start_data_month and data_month&lt;=end_data_month group by data_month) a, (select a.data_month, count(a.*) targ_cnt from drg_patient_case a, drg_patient_case b where a.data_month&gt;=start_data_month and a.data_month&lt;=end_data_month and date_part('day', age(to_date(a.dischg_date, 'YYYY-MM-DD'), to_date(b.admit_date, 'YYYY-MM-DD')))&gt;=2 and date_part('day', age(to_date(a.dischg_date, 'YYYY-MM-DD'), to_date(b.admit_date, 'YYYY-MM-DD')))&lt;=31 and a.patient_id=b.patient_id group by a.data_month) b where a.data_month=b.data_month</t>
+  </si>
+  <si>
+    <t>select a.data_month, round(cast(b.targ_cnt*1.0/a.tot_cnt as numeric), 2) as hosp_rate from (select data_month, count(*) tot_cnt from drg_patient_case where data_month&gt;=start_data_month and data_month&lt;=end_data_month group by data_month) a, (select data_month, count(*) targ_cnt from drg_patient_case where data_month&gt;=start_data_month and data_month&lt;=end_data_month and day31_readmit_plan='1' group by data_month) b where a.data_month=b.data_month</t>
+  </si>
+  <si>
+    <t>select a.data_month, round(cast(b.targ_cnt*1.0/a.tot_cnt as numeric), 2) as hosp_rate from (select data_month, count(*) tot_cnt from drg_patient_case where data_month&gt;=start_data_month and data_month&lt;=end_data_month group by data_month) a, (select data_month, count(*) targ_cnt from drg_patient_case where data_month&gt;=start_data_month and data_month&lt;=end_data_month and op_0_date&lt;&gt;'' and ((op_1_date is not null and op_1_date&lt;&gt;'' and op_0_date&lt;&gt;op_1_date) or (op_2_date is not null and op_2_date&lt;&gt;'' and op_0_date&lt;&gt;op_2_date) or (op_3_date is not null and op_3_date&lt;&gt;'' and op_0_date&lt;&gt;op_3_date) or (op_4_date is not null and op_4_date&lt;&gt;'' and op_0_date&lt;&gt;op_4_date) or (op_5_date is not null and op_5_date&lt;&gt;'' and op_0_date&lt;&gt;op_5_date) or (op_6_date is not null and op_6_date&lt;&gt;'' and op_0_date&lt;&gt;op_6_date) or (op_7_date is not null and op_7_date&lt;&gt;'' and op_0_date&lt;&gt;op_7_date) or (op_8_date is not null and op_8_date&lt;&gt;'' and op_0_date&lt;&gt;op_8_date) or (op_9_date is not null and op_9_date&lt;&gt;'' and op_0_date&lt;&gt;op_9_date)) group by data_month) b where a.data_month=b.data_month</t>
+  </si>
+  <si>
+    <t>select a.data_month, round(cast(b.targ_cnt*1.0/a.tot_cnt as numeric), 2) as hosp_rate from (select data_month, count(*) tot_cnt from drg_patient_case where data_month&gt;=start_data_month and data_month&lt;=end_data_month and op_0_code is not null and op_0_code&lt;&gt;'' group by data_month) a, (select data_month, count(*) targ_cnt from drg_patient_case where data_month&gt;=start_data_month and data_month&lt;=end_data_month and op_0_date&lt;&gt;'' and ((op_1_date is not null and op_1_date&lt;&gt;'' and op_0_date&lt;&gt;op_1_date) or (op_2_date is not null and op_2_date&lt;&gt;'' and op_0_date&lt;&gt;op_2_date) or (op_3_date is not null and op_3_date&lt;&gt;'' and op_0_date&lt;&gt;op_3_date) or (op_4_date is not null and op_4_date&lt;&gt;'' and op_0_date&lt;&gt;op_4_date) or (op_5_date is not null and op_5_date&lt;&gt;'' and op_0_date&lt;&gt;op_5_date) or (op_6_date is not null and op_6_date&lt;&gt;'' and op_0_date&lt;&gt;op_6_date) or (op_7_date is not null and op_7_date&lt;&gt;'' and op_0_date&lt;&gt;op_7_date) or (op_8_date is not null and op_8_date&lt;&gt;'' and op_0_date&lt;&gt;op_8_date) or (op_9_date is not null and op_9_date&lt;&gt;'' and op_0_date&lt;&gt;op_9_date)) group by data_month) b where a.data_month=b.data_month</t>
+  </si>
+  <si>
+    <t>select a.data_month, round(cast(b.targ_cnt*1.0/a.tot_cnt as numeric), 3) as hosp_rate from (select data_month, count(*) tot_cnt from drg_patient_case where data_month&gt;=start_data_month and data_month&lt;=end_data_month group by data_month) a, (select data_month, count(*) targ_cnt from drg_patient_case where data_month&gt;=start_data_month and data_month&lt;=end_data_month and return_code='5' group by data_month) b where a.data_month=b.data_month</t>
+  </si>
+  <si>
+    <t>select a.data_month, round(cast(b.targ_cnt*1.0/a.tot_cnt as numeric), 3) as hosp_rate from (select data_month, count(*) tot_cnt from drg_patient_case where data_month&gt;=start_data_month and data_month&lt;=end_data_month group by data_month) a, (select a.data_month, count(a.*) targ_cnt from drg_patient_case a, drg_icd9cm b where a.data_month&gt;=start_data_month and a.data_month&lt;=end_data_month and a.return_code='5' and a.patient_summary_op like '%' || b.icd9code || '%' and b.icd9_code_categrry='手术' group by a.data_month) b where a.data_month=b.data_month</t>
+  </si>
+  <si>
+    <t>select a.data_month, round(cast(b.targ_cnt*1.0/a.tot_cnt as numeric), 3) as hosp_rate from (select data_month, count(*) tot_cnt from drg_patient_case where data_month&gt;=start_data_month and data_month&lt;=end_data_month group by data_month) a, (select data_month, count(*) targ_cnt from drg_patient_case where data_month&gt;=start_data_month and data_month&lt;=end_data_month and return_code='5' and date_part('day', age(to_date(dischg_date, 'YYYY-MM-DD'), to_date(birth_date, 'YYYY-MM-DD')))&lt;29 group by data_month) b where a.data_month=b.data_month</t>
+  </si>
+  <si>
+    <t>select data_month, round(cast(avg(fee_amt) as numeric), 2) hosp_amt from drg_patient_case where data_month&gt;=start_data_month and data_month&lt;=end_data_month group by data_month</t>
+  </si>
+  <si>
+    <t>select data_month, round(cast(avg(days) as numeric), 2) hosp_amt from drg_patient_case where data_month&gt;=start_data_month and data_month&lt;=end_data_month group by data_month</t>
+  </si>
+  <si>
+    <t>select data_month, round(cast((case when SUM(fee_amt)=0 then 0 else SUM(D23+D24+D25+D26+D27+D28+D29+D30)/SUM(fee_amt) end) as numeric), 2) hosp_amt from drg_patient_case where data_month&gt;=start_data_month and data_month&lt;=end_data_month group by data_month</t>
+  </si>
+  <si>
+    <t>select data_month, round(cast((case when SUM(fee_amt)=0 then 0 else SUM(D31+D32+D33)/SUM(fee_amt) end) as numeric), 2) hosp_amt from drg_patient_case where data_month&gt;=start_data_month and data_month&lt;=end_data_month group by data_month</t>
+  </si>
+  <si>
+    <t>select data_month, round(cast((case when SUM(d23)=0 then 0 else SUM(d23x01)/SUM(d23) end) as numeric), 2) hosp_amt from drg_patient_case where data_month&gt;=start_data_month and data_month&lt;=end_data_month group by data_month</t>
   </si>
   <si>
     <t>select a.data_month, case when b.dischg_count=0 then 0 else a.d23x01_count/b.dischg_count end hosp_amt from (select data_month, count(*) d23x01_count from drg_patient_case where data_month&gt;=start_data_month and data_month&lt;=end_data_month and d23x01&gt;0 group by data_month) a,
-(select data_month, count(*) dischg_count from drg_patient_case group by data_month) b where a.data_month=b.data_month</t>
+(select data_month, count(*) dischg_count from drg_patient_case where data_month&gt;=start_data_month and data_month&lt;=end_data_month group by data_month) b where a.data_month=b.data_month</t>
+  </si>
+  <si>
+    <t>Exist for year 2018, not exist for year 2019</t>
+  </si>
+  <si>
+    <t>Field fee_amt should have value</t>
+  </si>
+  <si>
+    <t>Field fee_amt should have value.
+And fields d23, d24, d25, d26, d27, d28, d29, d30 should have values too</t>
+  </si>
+  <si>
+    <t>Field fee_amt should have value.
+And fields d31, d32, d33 should have values too</t>
+  </si>
+  <si>
+    <t>Fields d23x01, d23 should have values too</t>
+  </si>
+  <si>
+    <t>Fields d23x01 should have values too</t>
   </si>
 </sst>
 </file>
@@ -15738,10 +15761,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H2471"/>
+  <dimension ref="A1:I2471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -15752,10 +15775,10 @@
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="51.75" customWidth="1"/>
     <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="67.75" customWidth="1"/>
+    <col min="7" max="7" width="36.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
         <v>349</v>
       </c>
@@ -15781,7 +15804,7 @@
         <v>3019</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -15804,10 +15827,10 @@
         <v>2990</v>
       </c>
       <c r="H2" t="s">
-        <v>3020</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -15830,10 +15853,10 @@
         <v>2991</v>
       </c>
       <c r="H3" t="s">
-        <v>3021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -15853,7 +15876,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="31.5">
+    <row r="5" spans="1:9" ht="31.5">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -15876,10 +15899,10 @@
         <v>2974</v>
       </c>
       <c r="H5" t="s">
-        <v>3022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="47.25">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="47.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -15902,10 +15925,10 @@
         <v>2975</v>
       </c>
       <c r="H6" t="s">
-        <v>3023</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="47.25">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="47.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -15928,10 +15951,10 @@
         <v>2992</v>
       </c>
       <c r="H7" t="s">
-        <v>3024</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="31.5">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="31.5">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -15954,10 +15977,13 @@
         <v>2981</v>
       </c>
       <c r="H8" t="s">
-        <v>3025</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="47.25">
+        <v>3026</v>
+      </c>
+      <c r="I8" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="47.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -15980,10 +16006,10 @@
         <v>2982</v>
       </c>
       <c r="H9" t="s">
-        <v>3026</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -16006,10 +16032,13 @@
         <v>2983</v>
       </c>
       <c r="H10" t="s">
-        <v>3027</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="47.25">
+        <v>3028</v>
+      </c>
+      <c r="I10" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="63">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -16032,10 +16061,13 @@
         <v>2985</v>
       </c>
       <c r="H11" t="s">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="47.25">
+        <v>3029</v>
+      </c>
+      <c r="I11" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="47.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -16058,10 +16090,13 @@
         <v>2985</v>
       </c>
       <c r="H12" t="s">
-        <v>3029</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>3030</v>
+      </c>
+      <c r="I12" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -16084,7 +16119,7 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -16107,7 +16142,7 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -16130,7 +16165,7 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -16153,7 +16188,7 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -16176,7 +16211,7 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -16199,10 +16234,13 @@
         <v>2997</v>
       </c>
       <c r="H18" t="s">
-        <v>3030</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="31.5">
+        <v>3031</v>
+      </c>
+      <c r="I18" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="31.5">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -16225,10 +16263,13 @@
         <v>2988</v>
       </c>
       <c r="H19" t="s">
-        <v>3031</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="31.5">
+        <v>3032</v>
+      </c>
+      <c r="I19" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="31.5">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -16251,10 +16292,13 @@
         <v>2998</v>
       </c>
       <c r="H20" t="s">
-        <v>3032</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>3033</v>
+      </c>
+      <c r="I20" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -16277,7 +16321,7 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -16300,7 +16344,7 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -16323,7 +16367,7 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -16346,7 +16390,7 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -16369,7 +16413,7 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -16392,7 +16436,7 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -16415,7 +16459,7 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -16438,7 +16482,7 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -16461,7 +16505,7 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -16484,7 +16528,7 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -16501,10 +16545,13 @@
         <v>2995</v>
       </c>
       <c r="H31" t="s">
-        <v>3033</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>3034</v>
+      </c>
+      <c r="I31" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -16521,10 +16568,10 @@
         <v>2999</v>
       </c>
       <c r="H32" t="s">
-        <v>3034</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="220.5">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -16541,10 +16588,13 @@
         <v>3001</v>
       </c>
       <c r="H33" t="s">
-        <v>3035</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>3036</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="189">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -16561,10 +16611,13 @@
         <v>2993</v>
       </c>
       <c r="H34" t="s">
-        <v>3036</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>3037</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="110.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -16581,10 +16634,13 @@
         <v>3002</v>
       </c>
       <c r="H35" t="s">
-        <v>3037</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="409.5">
+        <v>3038</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="409.5">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -16601,10 +16657,13 @@
         <v>3003</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>3038</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>3039</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -16624,7 +16683,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -16644,7 +16703,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -16664,7 +16723,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -16684,7 +16743,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -16704,7 +16763,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -16724,7 +16783,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -16744,7 +16803,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -16764,7 +16823,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -16784,7 +16843,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -16804,7 +16863,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -16821,7 +16880,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>14</v>
       </c>
